--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/INVENTARIO ALMACEN  OCTUBRE     2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/INVENTARIO ALMACEN  OCTUBRE     2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="10215" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="10215" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO    2 0 2 2      " sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <sheet name="  A G O S T O    2 0 2 2      " sheetId="9" r:id="rId9"/>
     <sheet name="    S E P T I E M B RE    2022 " sheetId="10" r:id="rId10"/>
     <sheet name="  O C T U B R E      2 0 2 2   " sheetId="11" r:id="rId11"/>
-    <sheet name="Hoja2" sheetId="12" r:id="rId12"/>
+    <sheet name=" N O V  I E M B R E   2022   " sheetId="12" r:id="rId12"/>
+    <sheet name="Hoja1" sheetId="13" r:id="rId13"/>
+    <sheet name="Hoja3" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,6 +71,40 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Rouss</author>
+  </authors>
+  <commentList>
+    <comment ref="O8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rouss:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Rouss</author>
@@ -375,7 +411,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="156">
   <si>
     <t>INVENTARIO ALMACEN</t>
   </si>
@@ -960,6 +996,12 @@
       </rPr>
       <t xml:space="preserve"> EL TRASPASO 0265 B1  cancelado</t>
     </r>
+  </si>
+  <si>
+    <t>Oct, 2022</t>
+  </si>
+  <si>
+    <t>Nov.,2022</t>
   </si>
 </sst>
 </file>
@@ -2470,7 +2512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="599">
+  <cellXfs count="621">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3693,200 +3735,8 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3906,6 +3756,240 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="23" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3915,6 +3999,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC66FF"/>
       <color rgb="FF66FF99"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF0000FF"/>
@@ -3922,7 +4007,6 @@
       <color rgb="FFFF00FF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFF9900"/>
-      <color rgb="FFCC66FF"/>
       <color rgb="FF99FF99"/>
       <color rgb="FF660033"/>
     </mruColors>
@@ -4231,10 +4315,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="526"/>
+      <c r="B1" s="547" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="547"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -4246,50 +4330,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="527">
+      <c r="B2" s="548">
         <v>44591</v>
       </c>
-      <c r="C2" s="528"/>
-      <c r="F2" s="529" t="s">
+      <c r="C2" s="549"/>
+      <c r="F2" s="550" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="529"/>
-      <c r="H2" s="529"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="544" t="s">
+      <c r="K2" s="565" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="544"/>
+      <c r="L2" s="565"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="530" t="s">
+      <c r="C3" s="551" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="531"/>
+      <c r="D3" s="552"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="532" t="s">
+      <c r="F3" s="553" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="533"/>
+      <c r="G3" s="554"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="534" t="s">
+      <c r="I3" s="555" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="544"/>
-      <c r="L3" s="544"/>
-      <c r="M3" s="536" t="s">
+      <c r="K3" s="565"/>
+      <c r="L3" s="565"/>
+      <c r="M3" s="557" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="537"/>
-      <c r="O3" s="538" t="s">
+      <c r="N3" s="558"/>
+      <c r="O3" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="539"/>
+      <c r="P3" s="560"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -4311,7 +4395,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="535"/>
+      <c r="I4" s="556"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -4368,8 +4452,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="540"/>
-      <c r="P5" s="541"/>
+      <c r="O5" s="561"/>
+      <c r="P5" s="562"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -4407,8 +4491,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="542"/>
-      <c r="P6" s="543"/>
+      <c r="O6" s="563"/>
+      <c r="P6" s="564"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -4491,8 +4575,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="524"/>
-      <c r="P8" s="525"/>
+      <c r="O8" s="545"/>
+      <c r="P8" s="546"/>
     </row>
     <row r="9" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
@@ -4573,8 +4657,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="547"/>
-      <c r="P10" s="548"/>
+      <c r="O10" s="537"/>
+      <c r="P10" s="538"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="53"/>
     </row>
@@ -4725,8 +4809,8 @@
         <f>L14+I14</f>
         <v>-34</v>
       </c>
-      <c r="O14" s="549"/>
-      <c r="P14" s="549"/>
+      <c r="O14" s="539"/>
+      <c r="P14" s="539"/>
       <c r="Q14" s="163" t="s">
         <v>47</v>
       </c>
@@ -4940,8 +5024,8 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="O19" s="550"/>
-      <c r="P19" s="550"/>
+      <c r="O19" s="540"/>
+      <c r="P19" s="540"/>
       <c r="Q19" s="163" t="s">
         <v>49</v>
       </c>
@@ -5028,8 +5112,8 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="O21" s="551"/>
-      <c r="P21" s="551"/>
+      <c r="O21" s="541"/>
+      <c r="P21" s="541"/>
       <c r="Q21" s="163" t="s">
         <v>50</v>
       </c>
@@ -5073,8 +5157,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="552"/>
-      <c r="P22" s="553"/>
+      <c r="O22" s="542"/>
+      <c r="P22" s="543"/>
       <c r="Q22" s="150"/>
       <c r="R22" s="53"/>
       <c r="S22" s="53"/>
@@ -5180,8 +5264,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O25" s="554"/>
-      <c r="P25" s="554"/>
+      <c r="O25" s="544"/>
+      <c r="P25" s="544"/>
       <c r="Q25" s="163" t="s">
         <v>51</v>
       </c>
@@ -5573,10 +5657,10 @@
     <row r="37" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="546" t="s">
+      <c r="F37" s="536" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="546"/>
+      <c r="G37" s="536"/>
       <c r="H37" s="129">
         <f>SUM(H5:H30)</f>
         <v>35456.6</v>
@@ -5605,7 +5689,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="545" t="s">
+      <c r="B40" s="535" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="155" t="s">
@@ -5626,7 +5710,7 @@
       <c r="N40" s="160"/>
     </row>
     <row r="41" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="545"/>
+      <c r="B41" s="535"/>
       <c r="C41" s="155" t="s">
         <v>48</v>
       </c>
@@ -5645,7 +5729,7 @@
       <c r="N41" s="160"/>
     </row>
     <row r="42" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="545"/>
+      <c r="B42" s="535"/>
       <c r="C42" s="155" t="s">
         <v>49</v>
       </c>
@@ -5664,7 +5748,7 @@
       <c r="N42" s="160"/>
     </row>
     <row r="43" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="545"/>
+      <c r="B43" s="535"/>
       <c r="C43" s="155" t="s">
         <v>50</v>
       </c>
@@ -5683,7 +5767,7 @@
       <c r="N43" s="160"/>
     </row>
     <row r="44" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="545"/>
+      <c r="B44" s="535"/>
       <c r="C44" s="155" t="s">
         <v>51</v>
       </c>
@@ -5702,7 +5786,7 @@
       <c r="N44" s="160"/>
     </row>
     <row r="45" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="545"/>
+      <c r="B45" s="535"/>
       <c r="C45" s="155" t="s">
         <v>54</v>
       </c>
@@ -5728,14 +5812,6 @@
     <sortCondition ref="B7:B36"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O25:P25"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -5748,6 +5824,14 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O25:P25"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
@@ -5788,10 +5872,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="586" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="587"/>
+      <c r="B1" s="598" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="599"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -5803,21 +5887,21 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="527">
+      <c r="B2" s="548">
         <v>44836</v>
       </c>
-      <c r="C2" s="528"/>
-      <c r="F2" s="529" t="s">
+      <c r="C2" s="549"/>
+      <c r="F2" s="550" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="529"/>
-      <c r="H2" s="529"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="544" t="s">
+      <c r="K2" s="565" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="544"/>
+      <c r="L2" s="565"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
       <c r="Q2" s="330"/>
@@ -5827,30 +5911,30 @@
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="530" t="s">
+      <c r="C3" s="551" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="531"/>
+      <c r="D3" s="552"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="532" t="s">
+      <c r="F3" s="553" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="533"/>
+      <c r="G3" s="554"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="534" t="s">
+      <c r="I3" s="555" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="544"/>
-      <c r="L3" s="544"/>
-      <c r="M3" s="536" t="s">
+      <c r="K3" s="565"/>
+      <c r="L3" s="565"/>
+      <c r="M3" s="557" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="537"/>
-      <c r="O3" s="538" t="s">
+      <c r="N3" s="558"/>
+      <c r="O3" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="588"/>
+      <c r="P3" s="597"/>
       <c r="Q3" s="330"/>
       <c r="R3" s="185"/>
       <c r="S3" s="185"/>
@@ -5876,7 +5960,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="535"/>
+      <c r="I4" s="556"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -5941,8 +6025,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="540"/>
-      <c r="P5" s="540"/>
+      <c r="O5" s="561"/>
+      <c r="P5" s="561"/>
       <c r="Q5" s="330"/>
       <c r="R5" s="185"/>
       <c r="S5" s="185"/>
@@ -5984,8 +6068,8 @@
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="O6" s="542"/>
-      <c r="P6" s="542"/>
+      <c r="O6" s="563"/>
+      <c r="P6" s="563"/>
       <c r="Q6" s="489" t="s">
         <v>138</v>
       </c>
@@ -6068,8 +6152,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="524"/>
-      <c r="P8" s="524"/>
+      <c r="O8" s="545"/>
+      <c r="P8" s="545"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
       <c r="S8" s="185"/>
@@ -6150,8 +6234,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="547"/>
-      <c r="P10" s="547"/>
+      <c r="O10" s="537"/>
+      <c r="P10" s="537"/>
       <c r="Q10" s="379"/>
       <c r="R10" s="185"/>
       <c r="S10" s="185"/>
@@ -6279,8 +6363,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="549"/>
-      <c r="P13" s="549"/>
+      <c r="O13" s="539"/>
+      <c r="P13" s="539"/>
       <c r="Q13" s="190"/>
       <c r="R13" s="188"/>
       <c r="S13" s="188"/>
@@ -6566,8 +6650,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="550"/>
-      <c r="P20" s="550"/>
+      <c r="O20" s="540"/>
+      <c r="P20" s="540"/>
       <c r="Q20" s="190"/>
       <c r="R20" s="185"/>
       <c r="S20" s="185"/>
@@ -6648,8 +6732,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="551"/>
-      <c r="P22" s="551"/>
+      <c r="O22" s="541"/>
+      <c r="P22" s="541"/>
       <c r="Q22" s="190"/>
       <c r="R22" s="189"/>
       <c r="S22" s="189"/>
@@ -6683,8 +6767,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="552"/>
-      <c r="P23" s="552"/>
+      <c r="O23" s="542"/>
+      <c r="P23" s="542"/>
       <c r="Q23" s="190"/>
       <c r="R23" s="185"/>
       <c r="S23" s="185"/>
@@ -6796,8 +6880,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O26" s="554"/>
-      <c r="P26" s="554"/>
+      <c r="O26" s="544"/>
+      <c r="P26" s="544"/>
       <c r="Q26" s="489" t="s">
         <v>140</v>
       </c>
@@ -7274,10 +7358,10 @@
     <row r="39" spans="2:20" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="126"/>
       <c r="D39" s="128"/>
-      <c r="F39" s="546" t="s">
+      <c r="F39" s="536" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="546"/>
+      <c r="G39" s="536"/>
       <c r="H39" s="129">
         <f>SUM(H5:H31)</f>
         <v>41982.6</v>
@@ -7478,6 +7562,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -7490,13 +7581,6 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7511,8 +7595,8 @@
   </sheetPr>
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7537,10 +7621,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="586" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="587"/>
+      <c r="B1" s="598" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="599"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -7552,21 +7636,21 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="527">
+      <c r="B2" s="548">
         <v>44864</v>
       </c>
-      <c r="C2" s="528"/>
-      <c r="F2" s="529" t="s">
+      <c r="C2" s="549"/>
+      <c r="F2" s="550" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="529"/>
-      <c r="H2" s="529"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="544" t="s">
+      <c r="K2" s="565" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="544"/>
+      <c r="L2" s="565"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
       <c r="Q2" s="330"/>
@@ -7576,30 +7660,30 @@
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="530" t="s">
+      <c r="C3" s="551" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="531"/>
+      <c r="D3" s="552"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="532" t="s">
+      <c r="F3" s="553" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="533"/>
+      <c r="G3" s="554"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="534" t="s">
+      <c r="I3" s="555" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="544"/>
-      <c r="L3" s="544"/>
-      <c r="M3" s="536" t="s">
+      <c r="K3" s="565"/>
+      <c r="L3" s="565"/>
+      <c r="M3" s="557" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="537"/>
-      <c r="O3" s="538" t="s">
+      <c r="N3" s="558"/>
+      <c r="O3" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="588"/>
+      <c r="P3" s="597"/>
       <c r="Q3" s="330"/>
       <c r="R3" s="185"/>
       <c r="S3" s="185"/>
@@ -7625,7 +7709,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="535"/>
+      <c r="I4" s="556"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -7686,8 +7770,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="540"/>
-      <c r="P5" s="540"/>
+      <c r="O5" s="561"/>
+      <c r="P5" s="561"/>
       <c r="Q5" s="330"/>
       <c r="R5" s="185"/>
       <c r="S5" s="185"/>
@@ -7729,8 +7813,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="542"/>
-      <c r="P6" s="542"/>
+      <c r="O6" s="563"/>
+      <c r="P6" s="563"/>
       <c r="Q6" s="489"/>
       <c r="R6" s="185"/>
       <c r="S6" s="513"/>
@@ -7811,8 +7895,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="524"/>
-      <c r="P8" s="524"/>
+      <c r="O8" s="545"/>
+      <c r="P8" s="545"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
       <c r="S8" s="185"/>
@@ -7881,8 +7965,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="547"/>
-      <c r="P10" s="547"/>
+      <c r="O10" s="537"/>
+      <c r="P10" s="537"/>
       <c r="Q10" s="517"/>
       <c r="R10" s="185"/>
       <c r="S10" s="185"/>
@@ -8014,8 +8098,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="549"/>
-      <c r="P13" s="549"/>
+      <c r="O13" s="539"/>
+      <c r="P13" s="539"/>
       <c r="Q13" s="190"/>
       <c r="R13" s="188"/>
       <c r="S13" s="188"/>
@@ -8299,8 +8383,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="550"/>
-      <c r="P20" s="550"/>
+      <c r="O20" s="540"/>
+      <c r="P20" s="540"/>
       <c r="Q20" s="190"/>
       <c r="R20" s="185"/>
       <c r="S20" s="185"/>
@@ -8377,8 +8461,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O22" s="551"/>
-      <c r="P22" s="551"/>
+      <c r="O22" s="541"/>
+      <c r="P22" s="541"/>
       <c r="Q22" s="520" t="s">
         <v>47</v>
       </c>
@@ -8414,8 +8498,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="552"/>
-      <c r="P23" s="552"/>
+      <c r="O23" s="542"/>
+      <c r="P23" s="542"/>
       <c r="Q23" s="190"/>
       <c r="R23" s="185"/>
       <c r="S23" s="185"/>
@@ -8527,8 +8611,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O26" s="554"/>
-      <c r="P26" s="554"/>
+      <c r="O26" s="544"/>
+      <c r="P26" s="544"/>
       <c r="Q26" s="489"/>
       <c r="R26" s="185"/>
       <c r="S26" s="185"/>
@@ -8803,23 +8887,23 @@
     </row>
     <row r="34" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="167"/>
-      <c r="B34" s="589" t="s">
+      <c r="B34" s="525" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="590">
+      <c r="C34" s="526">
         <v>2052</v>
       </c>
-      <c r="D34" s="591">
+      <c r="D34" s="527">
         <v>72</v>
       </c>
-      <c r="E34" s="592"/>
-      <c r="F34" s="593"/>
-      <c r="G34" s="594"/>
-      <c r="H34" s="595">
+      <c r="E34" s="528"/>
+      <c r="F34" s="529"/>
+      <c r="G34" s="530"/>
+      <c r="H34" s="531">
         <f t="shared" si="0"/>
         <v>2052</v>
       </c>
-      <c r="I34" s="596">
+      <c r="I34" s="532">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
@@ -8830,11 +8914,11 @@
       <c r="L34" s="467">
         <v>62</v>
       </c>
-      <c r="M34" s="597">
+      <c r="M34" s="533">
         <f t="shared" si="2"/>
         <v>-291.70000000000005</v>
       </c>
-      <c r="N34" s="598">
+      <c r="N34" s="534">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
@@ -9014,10 +9098,10 @@
     <row r="39" spans="1:20" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="126"/>
       <c r="D39" s="128"/>
-      <c r="F39" s="546" t="s">
+      <c r="F39" s="536" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="546"/>
+      <c r="G39" s="536"/>
       <c r="H39" s="129">
         <f>SUM(H5:H31)</f>
         <v>16666.63</v>
@@ -9217,13 +9301,6 @@
     <sortCondition ref="B5:B37"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -9236,6 +9313,13 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9244,6 +9328,1581 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFCC66FF"/>
+  </sheetPr>
+  <dimension ref="A1:X51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="127" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="138" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="134"/>
+    <col min="14" max="14" width="10" style="127" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="0" style="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" style="329" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="598" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="599"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="548">
+        <v>44893</v>
+      </c>
+      <c r="C2" s="549"/>
+      <c r="F2" s="550" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="565" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="565"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9"/>
+      <c r="Q2" s="330"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+    </row>
+    <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="551" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="552"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="553" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="554"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="555" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="565"/>
+      <c r="L3" s="565"/>
+      <c r="M3" s="557" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="558"/>
+      <c r="O3" s="559" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="597"/>
+      <c r="Q3" s="330"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="185"/>
+    </row>
+    <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="556"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="330"/>
+      <c r="R4" s="185"/>
+      <c r="S4" s="185"/>
+      <c r="T4" s="185"/>
+    </row>
+    <row r="5" spans="2:24" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="447"/>
+      <c r="D5" s="448"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="447"/>
+      <c r="G5" s="449"/>
+      <c r="H5" s="29">
+        <f t="shared" ref="H5:I36" si="0">F5+C5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="491">
+        <f>K5-H5</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="311">
+        <f>L5-I5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="561"/>
+      <c r="P5" s="561"/>
+      <c r="Q5" s="330"/>
+      <c r="R5" s="185"/>
+      <c r="S5" s="185"/>
+      <c r="T5" s="185"/>
+    </row>
+    <row r="6" spans="2:24" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="600"/>
+      <c r="D6" s="448"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="447"/>
+      <c r="G6" s="449"/>
+      <c r="H6" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="492">
+        <f t="shared" ref="M6:N23" si="1">K6-H6</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="312">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="563"/>
+      <c r="P6" s="563"/>
+      <c r="Q6" s="489"/>
+      <c r="R6" s="185"/>
+      <c r="S6" s="513"/>
+      <c r="T6" s="514"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="2:24" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="264" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="447"/>
+      <c r="D7" s="448"/>
+      <c r="E7" s="447"/>
+      <c r="F7" s="447"/>
+      <c r="G7" s="449"/>
+      <c r="H7" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="270">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="193"/>
+      <c r="P7" s="300"/>
+      <c r="Q7" s="330"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+    </row>
+    <row r="8" spans="2:24" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="447"/>
+      <c r="D8" s="448"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="447"/>
+      <c r="G8" s="449"/>
+      <c r="H8" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="31"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="270">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="545"/>
+      <c r="P8" s="545"/>
+      <c r="Q8" s="300"/>
+      <c r="R8" s="185"/>
+      <c r="S8" s="185"/>
+      <c r="T8" s="185"/>
+    </row>
+    <row r="9" spans="2:24" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="264" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="447"/>
+      <c r="D9" s="448"/>
+      <c r="E9" s="601"/>
+      <c r="F9" s="447"/>
+      <c r="G9" s="449"/>
+      <c r="H9" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="270">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="48"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="190"/>
+      <c r="R9" s="185"/>
+      <c r="S9" s="185"/>
+      <c r="T9" s="185"/>
+    </row>
+    <row r="10" spans="2:24" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="264" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="447"/>
+      <c r="D10" s="448"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="447"/>
+      <c r="G10" s="449"/>
+      <c r="H10" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="270">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="537"/>
+      <c r="P10" s="537"/>
+      <c r="Q10" s="517"/>
+      <c r="R10" s="185"/>
+      <c r="S10" s="185"/>
+      <c r="T10" s="185"/>
+    </row>
+    <row r="11" spans="2:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="264" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="447"/>
+      <c r="D11" s="448"/>
+      <c r="E11" s="264"/>
+      <c r="F11" s="447"/>
+      <c r="G11" s="449"/>
+      <c r="H11" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="31"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="270">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="524"/>
+      <c r="P11" s="524"/>
+      <c r="Q11" s="379"/>
+      <c r="R11" s="185"/>
+      <c r="S11" s="185"/>
+      <c r="T11" s="185"/>
+    </row>
+    <row r="12" spans="2:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="264" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="602"/>
+      <c r="D12" s="448"/>
+      <c r="E12" s="264"/>
+      <c r="F12" s="602"/>
+      <c r="G12" s="449"/>
+      <c r="H12" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="270">
+        <f>L12-I12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="61"/>
+      <c r="P12" s="171"/>
+      <c r="Q12" s="379"/>
+      <c r="R12" s="185"/>
+      <c r="S12" s="185"/>
+      <c r="T12" s="185"/>
+    </row>
+    <row r="13" spans="2:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="364" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="447"/>
+      <c r="D13" s="448"/>
+      <c r="E13" s="264"/>
+      <c r="F13" s="447"/>
+      <c r="G13" s="449"/>
+      <c r="H13" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="270">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="539"/>
+      <c r="P13" s="539"/>
+      <c r="Q13" s="190"/>
+      <c r="R13" s="188"/>
+      <c r="S13" s="188"/>
+      <c r="T13" s="185"/>
+    </row>
+    <row r="14" spans="2:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="264" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="447"/>
+      <c r="D14" s="448"/>
+      <c r="E14" s="264"/>
+      <c r="F14" s="447"/>
+      <c r="G14" s="449"/>
+      <c r="H14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="270">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="65"/>
+      <c r="P14" s="172"/>
+      <c r="Q14" s="190"/>
+      <c r="R14" s="185"/>
+      <c r="S14" s="185"/>
+      <c r="T14" s="185"/>
+    </row>
+    <row r="15" spans="2:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="264" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="447"/>
+      <c r="D15" s="448"/>
+      <c r="E15" s="264"/>
+      <c r="F15" s="447"/>
+      <c r="G15" s="449"/>
+      <c r="H15" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="270">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="65"/>
+      <c r="P15" s="172"/>
+      <c r="Q15" s="190"/>
+      <c r="R15" s="185"/>
+      <c r="S15" s="185"/>
+      <c r="T15" s="185"/>
+    </row>
+    <row r="16" spans="2:24" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="264" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="447"/>
+      <c r="D16" s="448"/>
+      <c r="E16" s="264"/>
+      <c r="F16" s="447"/>
+      <c r="G16" s="449"/>
+      <c r="H16" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="270">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="67"/>
+      <c r="P16" s="173"/>
+      <c r="Q16" s="190"/>
+      <c r="R16" s="185"/>
+      <c r="S16" s="185"/>
+      <c r="T16" s="185"/>
+    </row>
+    <row r="17" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="264" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="447"/>
+      <c r="D17" s="448"/>
+      <c r="E17" s="264"/>
+      <c r="F17" s="447"/>
+      <c r="G17" s="449"/>
+      <c r="H17" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="270">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="67"/>
+      <c r="P17" s="173"/>
+      <c r="Q17" s="190"/>
+      <c r="R17" s="185"/>
+      <c r="S17" s="185"/>
+      <c r="T17" s="185"/>
+    </row>
+    <row r="18" spans="2:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="264" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="447"/>
+      <c r="D18" s="448"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="447"/>
+      <c r="G18" s="449"/>
+      <c r="H18" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="270">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="69"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="489"/>
+      <c r="R18" s="185"/>
+      <c r="S18" s="185"/>
+      <c r="T18" s="185"/>
+    </row>
+    <row r="19" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="264" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="447"/>
+      <c r="D19" s="448"/>
+      <c r="E19" s="264"/>
+      <c r="F19" s="447"/>
+      <c r="G19" s="449"/>
+      <c r="H19" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="270">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="71"/>
+      <c r="P19" s="164"/>
+      <c r="Q19" s="190"/>
+      <c r="R19" s="185"/>
+      <c r="S19" s="185"/>
+      <c r="T19" s="185"/>
+    </row>
+    <row r="20" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="264" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="447"/>
+      <c r="D20" s="448"/>
+      <c r="E20" s="264"/>
+      <c r="F20" s="447"/>
+      <c r="G20" s="449"/>
+      <c r="H20" s="268">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="269">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="241"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="270">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="540"/>
+      <c r="P20" s="540"/>
+      <c r="Q20" s="190"/>
+      <c r="R20" s="185"/>
+      <c r="S20" s="185"/>
+      <c r="T20" s="185"/>
+    </row>
+    <row r="21" spans="2:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="264" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="447"/>
+      <c r="D21" s="448"/>
+      <c r="E21" s="264"/>
+      <c r="F21" s="447"/>
+      <c r="G21" s="449"/>
+      <c r="H21" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="31"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="270">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="73"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="190"/>
+      <c r="R21" s="136"/>
+      <c r="S21" s="136"/>
+      <c r="T21" s="185"/>
+    </row>
+    <row r="22" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="264" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="447"/>
+      <c r="D22" s="448"/>
+      <c r="E22" s="264"/>
+      <c r="F22" s="447"/>
+      <c r="G22" s="449"/>
+      <c r="H22" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="31"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="270">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="541"/>
+      <c r="P22" s="541"/>
+      <c r="Q22" s="489"/>
+      <c r="R22" s="189"/>
+      <c r="S22" s="189"/>
+      <c r="T22" s="185"/>
+    </row>
+    <row r="23" spans="2:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="264" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="447"/>
+      <c r="D23" s="448"/>
+      <c r="E23" s="264"/>
+      <c r="F23" s="447"/>
+      <c r="G23" s="449"/>
+      <c r="H23" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="31"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="270">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="542"/>
+      <c r="P23" s="542"/>
+      <c r="Q23" s="190"/>
+      <c r="R23" s="185"/>
+      <c r="S23" s="185"/>
+      <c r="T23" s="185"/>
+    </row>
+    <row r="24" spans="2:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="264" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="447"/>
+      <c r="D24" s="448"/>
+      <c r="E24" s="264"/>
+      <c r="F24" s="447"/>
+      <c r="G24" s="449"/>
+      <c r="H24" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="220">
+        <f t="shared" ref="M24:N38" si="2">K24-H24</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="79"/>
+      <c r="P24" s="176"/>
+      <c r="Q24" s="190"/>
+      <c r="R24" s="185"/>
+      <c r="S24" s="185"/>
+      <c r="T24" s="185"/>
+    </row>
+    <row r="25" spans="2:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="264" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="447"/>
+      <c r="D25" s="448"/>
+      <c r="E25" s="264"/>
+      <c r="F25" s="447"/>
+      <c r="G25" s="449"/>
+      <c r="H25" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="31"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="81"/>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="190"/>
+      <c r="R25" s="185"/>
+      <c r="S25" s="185"/>
+      <c r="T25" s="185"/>
+    </row>
+    <row r="26" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="364" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="447"/>
+      <c r="D26" s="448"/>
+      <c r="E26" s="264"/>
+      <c r="F26" s="447"/>
+      <c r="G26" s="449"/>
+      <c r="H26" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="31"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="220">
+        <f>K26-H26</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="544"/>
+      <c r="P26" s="544"/>
+      <c r="Q26" s="489"/>
+      <c r="R26" s="185"/>
+      <c r="S26" s="185"/>
+      <c r="T26" s="185"/>
+    </row>
+    <row r="27" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="322" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="447"/>
+      <c r="D27" s="448"/>
+      <c r="E27" s="264"/>
+      <c r="F27" s="603"/>
+      <c r="G27" s="604"/>
+      <c r="H27" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="31"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="221"/>
+      <c r="P27" s="222"/>
+      <c r="Q27" s="489"/>
+      <c r="R27" s="185"/>
+      <c r="S27" s="185"/>
+      <c r="T27" s="185"/>
+    </row>
+    <row r="28" spans="2:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="364" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="447"/>
+      <c r="D28" s="448"/>
+      <c r="E28" s="264"/>
+      <c r="F28" s="603"/>
+      <c r="G28" s="604"/>
+      <c r="H28" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="31"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="223"/>
+      <c r="P28" s="224"/>
+      <c r="Q28" s="190"/>
+      <c r="R28" s="185"/>
+      <c r="S28" s="185"/>
+      <c r="T28" s="185"/>
+    </row>
+    <row r="29" spans="2:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="435" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="447"/>
+      <c r="D29" s="448"/>
+      <c r="E29" s="264"/>
+      <c r="F29" s="603"/>
+      <c r="G29" s="604"/>
+      <c r="H29" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="31"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="223"/>
+      <c r="P29" s="224"/>
+      <c r="Q29" s="490"/>
+      <c r="R29" s="185"/>
+      <c r="S29" s="185"/>
+      <c r="T29" s="185"/>
+    </row>
+    <row r="30" spans="2:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="264" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="447"/>
+      <c r="D30" s="448"/>
+      <c r="E30" s="264"/>
+      <c r="F30" s="603"/>
+      <c r="G30" s="604"/>
+      <c r="H30" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="31"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="226"/>
+      <c r="P30" s="227"/>
+      <c r="Q30" s="194"/>
+      <c r="R30" s="185"/>
+      <c r="S30" s="185"/>
+      <c r="T30" s="185"/>
+    </row>
+    <row r="31" spans="2:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="365" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="605"/>
+      <c r="D31" s="606"/>
+      <c r="E31" s="607"/>
+      <c r="F31" s="605"/>
+      <c r="G31" s="608"/>
+      <c r="H31" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="31"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="228"/>
+      <c r="P31" s="229"/>
+      <c r="Q31" s="190"/>
+      <c r="R31" s="185"/>
+      <c r="S31" s="185"/>
+      <c r="T31" s="185"/>
+    </row>
+    <row r="32" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="366" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="605"/>
+      <c r="D32" s="606"/>
+      <c r="E32" s="366"/>
+      <c r="F32" s="605"/>
+      <c r="G32" s="609"/>
+      <c r="H32" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="31"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="367"/>
+      <c r="P32" s="368"/>
+      <c r="Q32" s="489"/>
+      <c r="R32" s="185"/>
+      <c r="S32" s="185"/>
+      <c r="T32" s="185"/>
+    </row>
+    <row r="33" spans="1:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="447"/>
+      <c r="D33" s="448"/>
+      <c r="E33" s="366"/>
+      <c r="F33" s="605"/>
+      <c r="G33" s="609"/>
+      <c r="H33" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="31"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="232"/>
+      <c r="P33" s="233"/>
+      <c r="Q33" s="194"/>
+      <c r="R33" s="185"/>
+      <c r="S33" s="185"/>
+      <c r="T33" s="185"/>
+    </row>
+    <row r="34" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="53"/>
+      <c r="B34" s="620" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="447"/>
+      <c r="D34" s="448"/>
+      <c r="E34" s="610"/>
+      <c r="F34" s="605"/>
+      <c r="G34" s="609"/>
+      <c r="H34" s="618">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="619">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="31"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="232"/>
+      <c r="P34" s="233"/>
+      <c r="Q34" s="489"/>
+      <c r="R34" s="185"/>
+      <c r="S34" s="185"/>
+      <c r="T34" s="185"/>
+    </row>
+    <row r="35" spans="1:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="447"/>
+      <c r="D35" s="448"/>
+      <c r="E35" s="610"/>
+      <c r="F35" s="605"/>
+      <c r="G35" s="609"/>
+      <c r="H35" s="100">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="31"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="114"/>
+      <c r="P35" s="114"/>
+      <c r="Q35" s="300"/>
+      <c r="R35" s="185"/>
+      <c r="S35" s="185"/>
+      <c r="T35" s="185"/>
+    </row>
+    <row r="36" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="516" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="611"/>
+      <c r="D36" s="448"/>
+      <c r="E36" s="366"/>
+      <c r="F36" s="605"/>
+      <c r="G36" s="609"/>
+      <c r="H36" s="100">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="31"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="220">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="234"/>
+      <c r="P36" s="235"/>
+      <c r="Q36" s="187"/>
+      <c r="R36" s="185"/>
+      <c r="S36" s="185"/>
+      <c r="T36" s="185"/>
+    </row>
+    <row r="37" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="612"/>
+      <c r="D37" s="613"/>
+      <c r="E37" s="614"/>
+      <c r="F37" s="612"/>
+      <c r="G37" s="615"/>
+      <c r="H37" s="401">
+        <f t="shared" ref="H37:I38" si="3">F37+C37</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="402">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="403"/>
+      <c r="K37" s="616"/>
+      <c r="L37" s="617"/>
+      <c r="M37" s="493">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="494">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="230"/>
+      <c r="P37" s="231"/>
+      <c r="Q37" s="300"/>
+      <c r="R37" s="185"/>
+      <c r="S37" s="185"/>
+      <c r="T37" s="185"/>
+    </row>
+    <row r="38" spans="1:20" ht="20.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="141" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="86"/>
+      <c r="D38" s="393"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="394"/>
+      <c r="G38" s="395"/>
+      <c r="H38" s="60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="396">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="31"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="236"/>
+      <c r="P38" s="237"/>
+      <c r="Q38" s="300"/>
+      <c r="R38" s="185"/>
+      <c r="S38" s="185"/>
+      <c r="T38" s="185"/>
+    </row>
+    <row r="39" spans="1:20" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="126"/>
+      <c r="D39" s="128"/>
+      <c r="F39" s="536" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="536"/>
+      <c r="H39" s="129">
+        <f>SUM(H5:H31)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="130">
+        <f>SUM(I5:I31)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="131"/>
+      <c r="K39" s="132">
+        <f>SUM(K5:K37)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="133" t="s">
+        <v>63</v>
+      </c>
+      <c r="M39" s="238"/>
+      <c r="N39" s="239"/>
+      <c r="O39" s="240"/>
+      <c r="P39" s="241"/>
+      <c r="Q39" s="300"/>
+      <c r="R39" s="185"/>
+      <c r="S39" s="185"/>
+      <c r="T39" s="185"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M40" s="195"/>
+      <c r="N40" s="196"/>
+      <c r="O40" s="197"/>
+      <c r="Q40" s="300"/>
+      <c r="R40" s="185"/>
+      <c r="S40" s="185"/>
+      <c r="T40" s="185"/>
+    </row>
+    <row r="41" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="136"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="1"/>
+      <c r="Q41" s="330"/>
+      <c r="R41" s="185"/>
+      <c r="S41" s="185"/>
+      <c r="T41" s="185"/>
+    </row>
+    <row r="42" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="425" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="426"/>
+      <c r="E42" s="427"/>
+      <c r="F42" s="427"/>
+      <c r="G42" s="428"/>
+      <c r="H42" s="387"/>
+      <c r="I42" s="387"/>
+      <c r="J42" s="387"/>
+      <c r="K42" s="387"/>
+      <c r="L42" s="388"/>
+      <c r="M42" s="391"/>
+      <c r="N42" s="212"/>
+    </row>
+    <row r="43" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="511" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="521"/>
+      <c r="E43" s="509"/>
+      <c r="F43" s="509"/>
+      <c r="G43" s="510"/>
+      <c r="H43" s="510"/>
+      <c r="I43" s="510"/>
+      <c r="J43" s="510"/>
+      <c r="K43" s="510"/>
+      <c r="L43" s="388"/>
+      <c r="M43" s="391"/>
+      <c r="N43" s="212"/>
+    </row>
+    <row r="44" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="244"/>
+      <c r="C44" s="475" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="469"/>
+      <c r="E44" s="487"/>
+      <c r="F44" s="487"/>
+      <c r="G44" s="487"/>
+      <c r="H44" s="487"/>
+      <c r="I44" s="487"/>
+      <c r="J44" s="487"/>
+      <c r="K44" s="487"/>
+      <c r="L44" s="392"/>
+      <c r="M44" s="211"/>
+      <c r="N44" s="212"/>
+    </row>
+    <row r="45" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="244"/>
+      <c r="C45" s="201" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="522"/>
+      <c r="E45" s="484"/>
+      <c r="F45" s="484"/>
+      <c r="G45" s="485"/>
+      <c r="H45" s="485"/>
+      <c r="I45" s="485"/>
+      <c r="J45" s="485"/>
+      <c r="K45" s="485"/>
+      <c r="L45" s="206"/>
+      <c r="M45" s="211"/>
+      <c r="N45" s="212"/>
+    </row>
+    <row r="46" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="244"/>
+      <c r="C46" s="204"/>
+      <c r="D46" s="523"/>
+      <c r="E46" s="470"/>
+      <c r="F46" s="470"/>
+      <c r="G46" s="470"/>
+      <c r="H46" s="470"/>
+      <c r="I46" s="470"/>
+      <c r="J46" s="470"/>
+      <c r="K46" s="470"/>
+      <c r="L46" s="470"/>
+      <c r="M46" s="211"/>
+      <c r="N46" s="212"/>
+    </row>
+    <row r="47" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="244"/>
+      <c r="C47" s="204"/>
+      <c r="D47" s="389"/>
+      <c r="E47" s="390"/>
+      <c r="F47" s="390"/>
+      <c r="G47" s="390"/>
+      <c r="H47" s="390"/>
+      <c r="I47" s="390"/>
+      <c r="J47" s="390"/>
+      <c r="K47" s="390"/>
+      <c r="L47" s="206"/>
+      <c r="M47" s="207"/>
+      <c r="N47" s="208"/>
+    </row>
+    <row r="48" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="244"/>
+      <c r="C48" s="204"/>
+      <c r="D48" s="209"/>
+      <c r="E48" s="185"/>
+      <c r="F48" s="185"/>
+      <c r="G48" s="185"/>
+      <c r="H48" s="185"/>
+      <c r="I48" s="185"/>
+      <c r="J48" s="185"/>
+      <c r="K48" s="185"/>
+      <c r="L48" s="206"/>
+      <c r="M48" s="207"/>
+      <c r="N48" s="208"/>
+    </row>
+    <row r="49" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="244"/>
+      <c r="C49" s="204"/>
+      <c r="D49" s="210"/>
+      <c r="E49" s="185"/>
+      <c r="F49" s="185"/>
+      <c r="G49" s="185"/>
+      <c r="H49" s="185"/>
+      <c r="I49" s="185"/>
+      <c r="J49" s="185"/>
+      <c r="K49" s="185"/>
+      <c r="L49" s="206"/>
+      <c r="M49" s="207"/>
+      <c r="N49" s="208"/>
+    </row>
+    <row r="50" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="244"/>
+      <c r="C50" s="204"/>
+      <c r="D50" s="186"/>
+      <c r="E50" s="185"/>
+      <c r="F50" s="185"/>
+      <c r="G50" s="185"/>
+      <c r="H50" s="185"/>
+      <c r="I50" s="185"/>
+      <c r="J50" s="185"/>
+      <c r="K50" s="185"/>
+      <c r="L50" s="206"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9291,10 +10950,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="526"/>
+      <c r="B1" s="547" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="547"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -9306,50 +10965,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="527">
+      <c r="B2" s="548">
         <v>44619</v>
       </c>
-      <c r="C2" s="528"/>
-      <c r="F2" s="529" t="s">
+      <c r="C2" s="549"/>
+      <c r="F2" s="550" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="529"/>
-      <c r="H2" s="529"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="544" t="s">
+      <c r="K2" s="565" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="544"/>
+      <c r="L2" s="565"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="530" t="s">
+      <c r="C3" s="551" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="531"/>
+      <c r="D3" s="552"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="532" t="s">
+      <c r="F3" s="553" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="533"/>
+      <c r="G3" s="554"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="534" t="s">
+      <c r="I3" s="555" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="544"/>
-      <c r="L3" s="544"/>
-      <c r="M3" s="536" t="s">
+      <c r="K3" s="565"/>
+      <c r="L3" s="565"/>
+      <c r="M3" s="557" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="537"/>
-      <c r="O3" s="538" t="s">
+      <c r="N3" s="558"/>
+      <c r="O3" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="539"/>
+      <c r="P3" s="560"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -9371,7 +11030,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="535"/>
+      <c r="I4" s="556"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -9428,8 +11087,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="540"/>
-      <c r="P5" s="541"/>
+      <c r="O5" s="561"/>
+      <c r="P5" s="562"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -9467,8 +11126,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="542"/>
-      <c r="P6" s="543"/>
+      <c r="O6" s="563"/>
+      <c r="P6" s="564"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -9553,8 +11212,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="524"/>
-      <c r="P8" s="524"/>
+      <c r="O8" s="545"/>
+      <c r="P8" s="545"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -9626,8 +11285,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="547"/>
-      <c r="P10" s="547"/>
+      <c r="O10" s="537"/>
+      <c r="P10" s="537"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -9751,8 +11410,8 @@
         <f t="shared" ref="N13:N33" si="2">L13-I13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="549"/>
-      <c r="P13" s="549"/>
+      <c r="O13" s="539"/>
+      <c r="P13" s="539"/>
       <c r="Q13" s="199" t="s">
         <v>64</v>
       </c>
@@ -9948,8 +11607,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O18" s="550"/>
-      <c r="P18" s="550"/>
+      <c r="O18" s="540"/>
+      <c r="P18" s="540"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -10030,8 +11689,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="551"/>
-      <c r="P20" s="551"/>
+      <c r="O20" s="541"/>
+      <c r="P20" s="541"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -10065,8 +11724,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="552"/>
-      <c r="P21" s="552"/>
+      <c r="O21" s="542"/>
+      <c r="P21" s="542"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -10174,8 +11833,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="554"/>
-      <c r="P24" s="554"/>
+      <c r="O24" s="544"/>
+      <c r="P24" s="544"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="1"/>
     </row>
@@ -10576,10 +12235,10 @@
     <row r="36" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="126"/>
       <c r="D36" s="128"/>
-      <c r="F36" s="546" t="s">
+      <c r="F36" s="536" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="546"/>
+      <c r="G36" s="536"/>
       <c r="H36" s="129">
         <f>SUM(H5:H29)</f>
         <v>22064.760000000002</v>
@@ -10617,7 +12276,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="545" t="s">
+      <c r="B39" s="535" t="s">
         <v>58</v>
       </c>
       <c r="C39" s="155" t="s">
@@ -10638,7 +12297,7 @@
       <c r="N39" s="212"/>
     </row>
     <row r="40" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="545"/>
+      <c r="B40" s="535"/>
       <c r="C40" s="204"/>
       <c r="D40" s="213"/>
       <c r="E40" s="214"/>
@@ -10653,7 +12312,7 @@
       <c r="N40" s="212"/>
     </row>
     <row r="41" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="545"/>
+      <c r="B41" s="535"/>
       <c r="C41" s="201" t="s">
         <v>48</v>
       </c>
@@ -10672,7 +12331,7 @@
       <c r="N41" s="212"/>
     </row>
     <row r="42" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="555"/>
+      <c r="B42" s="566"/>
       <c r="C42" s="204"/>
       <c r="D42" s="205"/>
       <c r="E42" s="185"/>
@@ -10687,7 +12346,7 @@
       <c r="N42" s="208"/>
     </row>
     <row r="43" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="555"/>
+      <c r="B43" s="566"/>
       <c r="C43" s="204"/>
       <c r="D43" s="209"/>
       <c r="E43" s="185"/>
@@ -10702,7 +12361,7 @@
       <c r="N43" s="208"/>
     </row>
     <row r="44" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="555"/>
+      <c r="B44" s="566"/>
       <c r="C44" s="204"/>
       <c r="D44" s="210"/>
       <c r="E44" s="185"/>
@@ -10724,18 +12383,6 @@
     <sortCondition ref="B9:B16"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="B39:B44"/>
@@ -10744,6 +12391,18 @@
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.35433070866141736" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" r:id="rId1"/>
@@ -10784,10 +12443,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="526"/>
+      <c r="B1" s="547" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="547"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -10799,50 +12458,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="527">
+      <c r="B2" s="548">
         <v>44647</v>
       </c>
-      <c r="C2" s="528"/>
-      <c r="F2" s="529" t="s">
+      <c r="C2" s="549"/>
+      <c r="F2" s="550" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="529"/>
-      <c r="H2" s="529"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="544" t="s">
+      <c r="K2" s="565" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="544"/>
+      <c r="L2" s="565"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="530" t="s">
+      <c r="C3" s="551" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="531"/>
+      <c r="D3" s="552"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="532" t="s">
+      <c r="F3" s="553" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="533"/>
+      <c r="G3" s="554"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="534" t="s">
+      <c r="I3" s="555" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="544"/>
-      <c r="L3" s="544"/>
-      <c r="M3" s="536" t="s">
+      <c r="K3" s="565"/>
+      <c r="L3" s="565"/>
+      <c r="M3" s="557" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="537"/>
-      <c r="O3" s="538" t="s">
+      <c r="N3" s="558"/>
+      <c r="O3" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="539"/>
+      <c r="P3" s="560"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -10864,7 +12523,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="535"/>
+      <c r="I4" s="556"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -10921,8 +12580,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="540"/>
-      <c r="P5" s="541"/>
+      <c r="O5" s="561"/>
+      <c r="P5" s="562"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -10960,8 +12619,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="542"/>
-      <c r="P6" s="543"/>
+      <c r="O6" s="563"/>
+      <c r="P6" s="564"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -11046,8 +12705,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="524"/>
-      <c r="P8" s="524"/>
+      <c r="O8" s="545"/>
+      <c r="P8" s="545"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -11119,8 +12778,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="547"/>
-      <c r="P10" s="547"/>
+      <c r="O10" s="537"/>
+      <c r="P10" s="537"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -11236,8 +12895,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="549"/>
-      <c r="P13" s="549"/>
+      <c r="O13" s="539"/>
+      <c r="P13" s="539"/>
       <c r="Q13" s="187"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -11427,8 +13086,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="550"/>
-      <c r="P18" s="550"/>
+      <c r="O18" s="540"/>
+      <c r="P18" s="540"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -11497,8 +13156,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="551"/>
-      <c r="P20" s="551"/>
+      <c r="O20" s="541"/>
+      <c r="P20" s="541"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -11532,8 +13191,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="552"/>
-      <c r="P21" s="552"/>
+      <c r="O21" s="542"/>
+      <c r="P21" s="542"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -11641,8 +13300,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="554"/>
-      <c r="P24" s="554"/>
+      <c r="O24" s="544"/>
+      <c r="P24" s="544"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="185"/>
     </row>
@@ -12082,10 +13741,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="546" t="s">
+      <c r="F37" s="536" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="546"/>
+      <c r="G37" s="536"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>19776.46</v>
@@ -12218,6 +13877,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O24:P24"/>
@@ -12225,18 +13896,6 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
@@ -12277,10 +13936,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="526"/>
+      <c r="B1" s="547" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="547"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -12292,50 +13951,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="527">
+      <c r="B2" s="548">
         <v>44682</v>
       </c>
-      <c r="C2" s="528"/>
-      <c r="F2" s="529" t="s">
+      <c r="C2" s="549"/>
+      <c r="F2" s="550" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="529"/>
-      <c r="H2" s="529"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="544" t="s">
+      <c r="K2" s="565" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="544"/>
+      <c r="L2" s="565"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="530" t="s">
+      <c r="C3" s="551" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="531"/>
+      <c r="D3" s="552"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="532" t="s">
+      <c r="F3" s="553" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="533"/>
+      <c r="G3" s="554"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="534" t="s">
+      <c r="I3" s="555" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="544"/>
-      <c r="L3" s="544"/>
-      <c r="M3" s="536" t="s">
+      <c r="K3" s="565"/>
+      <c r="L3" s="565"/>
+      <c r="M3" s="557" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="537"/>
-      <c r="O3" s="538" t="s">
+      <c r="N3" s="558"/>
+      <c r="O3" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="539"/>
+      <c r="P3" s="560"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -12357,7 +14016,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="535"/>
+      <c r="I4" s="556"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -12414,8 +14073,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="540"/>
-      <c r="P5" s="541"/>
+      <c r="O5" s="561"/>
+      <c r="P5" s="562"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -12453,8 +14112,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="542"/>
-      <c r="P6" s="543"/>
+      <c r="O6" s="563"/>
+      <c r="P6" s="564"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -12539,8 +14198,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="524"/>
-      <c r="P8" s="524"/>
+      <c r="O8" s="545"/>
+      <c r="P8" s="545"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -12620,8 +14279,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="547"/>
-      <c r="P10" s="547"/>
+      <c r="O10" s="537"/>
+      <c r="P10" s="537"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -12737,8 +14396,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="549"/>
-      <c r="P13" s="549"/>
+      <c r="O13" s="539"/>
+      <c r="P13" s="539"/>
       <c r="Q13" s="187"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -12928,8 +14587,8 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O18" s="550"/>
-      <c r="P18" s="550"/>
+      <c r="O18" s="540"/>
+      <c r="P18" s="540"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -13014,8 +14673,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="551"/>
-      <c r="P20" s="551"/>
+      <c r="O20" s="541"/>
+      <c r="P20" s="541"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -13049,8 +14708,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="552"/>
-      <c r="P21" s="552"/>
+      <c r="O21" s="542"/>
+      <c r="P21" s="542"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -13158,8 +14817,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="554"/>
-      <c r="P24" s="554"/>
+      <c r="O24" s="544"/>
+      <c r="P24" s="544"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="185"/>
     </row>
@@ -13607,10 +15266,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="546" t="s">
+      <c r="F37" s="536" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="546"/>
+      <c r="G37" s="536"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>33269.280000000006</v>
@@ -13649,7 +15308,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="556" t="s">
+      <c r="B40" s="567" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="254" t="s">
@@ -13670,7 +15329,7 @@
       <c r="N40" s="212"/>
     </row>
     <row r="41" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="556"/>
+      <c r="B41" s="567"/>
       <c r="C41" s="204"/>
       <c r="D41" s="249"/>
       <c r="E41" s="250"/>
@@ -13749,6 +15408,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -13758,17 +15428,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="F37:G37"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
@@ -13809,10 +15468,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="526"/>
+      <c r="B1" s="547" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="547"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -13824,50 +15483,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="527">
+      <c r="B2" s="548">
         <v>44710</v>
       </c>
-      <c r="C2" s="528"/>
-      <c r="F2" s="529" t="s">
+      <c r="C2" s="549"/>
+      <c r="F2" s="550" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="529"/>
-      <c r="H2" s="529"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="544" t="s">
+      <c r="K2" s="565" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="544"/>
+      <c r="L2" s="565"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="530" t="s">
+      <c r="C3" s="551" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="531"/>
+      <c r="D3" s="552"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="532" t="s">
+      <c r="F3" s="553" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="533"/>
+      <c r="G3" s="554"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="534" t="s">
+      <c r="I3" s="555" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="544"/>
-      <c r="L3" s="544"/>
-      <c r="M3" s="536" t="s">
+      <c r="K3" s="565"/>
+      <c r="L3" s="565"/>
+      <c r="M3" s="557" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="537"/>
-      <c r="O3" s="538" t="s">
+      <c r="N3" s="558"/>
+      <c r="O3" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="539"/>
+      <c r="P3" s="560"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -13889,7 +15548,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="535"/>
+      <c r="I4" s="556"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -13946,8 +15605,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="540"/>
-      <c r="P5" s="541"/>
+      <c r="O5" s="561"/>
+      <c r="P5" s="562"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -13985,8 +15644,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="542"/>
-      <c r="P6" s="543"/>
+      <c r="O6" s="563"/>
+      <c r="P6" s="564"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -14075,8 +15734,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="524"/>
-      <c r="P8" s="524"/>
+      <c r="O8" s="545"/>
+      <c r="P8" s="545"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -14162,8 +15821,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="547"/>
-      <c r="P10" s="547"/>
+      <c r="O10" s="537"/>
+      <c r="P10" s="537"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -14279,8 +15938,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="549"/>
-      <c r="P13" s="549"/>
+      <c r="O13" s="539"/>
+      <c r="P13" s="539"/>
       <c r="Q13" s="187"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -14478,8 +16137,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="550"/>
-      <c r="P18" s="550"/>
+      <c r="O18" s="540"/>
+      <c r="P18" s="540"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -14556,8 +16215,8 @@
         <f t="shared" si="1"/>
         <v>-21</v>
       </c>
-      <c r="O20" s="551"/>
-      <c r="P20" s="551"/>
+      <c r="O20" s="541"/>
+      <c r="P20" s="541"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -14591,8 +16250,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="552"/>
-      <c r="P21" s="552"/>
+      <c r="O21" s="542"/>
+      <c r="P21" s="542"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -14704,8 +16363,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="554"/>
-      <c r="P24" s="554"/>
+      <c r="O24" s="544"/>
+      <c r="P24" s="544"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="185"/>
     </row>
@@ -15166,10 +16825,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="546" t="s">
+      <c r="F37" s="536" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="546"/>
+      <c r="G37" s="536"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>41344.509999999995</v>
@@ -15208,7 +16867,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="556" t="s">
+      <c r="B40" s="567" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="254" t="s">
@@ -15229,7 +16888,7 @@
       <c r="N40" s="212"/>
     </row>
     <row r="41" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="556"/>
+      <c r="B41" s="567"/>
       <c r="C41" s="291" t="s">
         <v>48</v>
       </c>
@@ -15248,7 +16907,7 @@
       <c r="N41" s="212"/>
     </row>
     <row r="42" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="556"/>
+      <c r="B42" s="567"/>
       <c r="C42" s="281" t="s">
         <v>48</v>
       </c>
@@ -15271,16 +16930,16 @@
       <c r="C43" s="287" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="557" t="s">
+      <c r="D43" s="568" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="558"/>
-      <c r="F43" s="558"/>
-      <c r="G43" s="558"/>
-      <c r="H43" s="558"/>
-      <c r="I43" s="558"/>
-      <c r="J43" s="558"/>
-      <c r="K43" s="559"/>
+      <c r="E43" s="569"/>
+      <c r="F43" s="569"/>
+      <c r="G43" s="569"/>
+      <c r="H43" s="569"/>
+      <c r="I43" s="569"/>
+      <c r="J43" s="569"/>
+      <c r="K43" s="570"/>
       <c r="L43" s="206"/>
       <c r="M43" s="211"/>
       <c r="N43" s="212"/>
@@ -15288,14 +16947,14 @@
     <row r="44" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="244"/>
       <c r="C44" s="204"/>
-      <c r="D44" s="560"/>
-      <c r="E44" s="561"/>
-      <c r="F44" s="561"/>
-      <c r="G44" s="561"/>
-      <c r="H44" s="561"/>
-      <c r="I44" s="561"/>
-      <c r="J44" s="561"/>
-      <c r="K44" s="562"/>
+      <c r="D44" s="571"/>
+      <c r="E44" s="572"/>
+      <c r="F44" s="572"/>
+      <c r="G44" s="572"/>
+      <c r="H44" s="572"/>
+      <c r="I44" s="572"/>
+      <c r="J44" s="572"/>
+      <c r="K44" s="573"/>
       <c r="L44" s="206"/>
       <c r="M44" s="207"/>
       <c r="N44" s="208"/>
@@ -15335,6 +16994,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D43:K44"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -15348,14 +17015,6 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="D43:K44"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="F37:G37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.11811023622047245" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" r:id="rId1"/>
@@ -15396,10 +17055,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="526"/>
+      <c r="B1" s="547" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="547"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -15411,50 +17070,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="527">
+      <c r="B2" s="548">
         <v>44745</v>
       </c>
-      <c r="C2" s="528"/>
-      <c r="F2" s="529" t="s">
+      <c r="C2" s="549"/>
+      <c r="F2" s="550" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="529"/>
-      <c r="H2" s="529"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="544" t="s">
+      <c r="K2" s="565" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="544"/>
+      <c r="L2" s="565"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="530" t="s">
+      <c r="C3" s="551" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="531"/>
+      <c r="D3" s="552"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="532" t="s">
+      <c r="F3" s="553" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="533"/>
+      <c r="G3" s="554"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="534" t="s">
+      <c r="I3" s="555" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="544"/>
-      <c r="L3" s="544"/>
-      <c r="M3" s="536" t="s">
+      <c r="K3" s="565"/>
+      <c r="L3" s="565"/>
+      <c r="M3" s="557" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="537"/>
-      <c r="O3" s="538" t="s">
+      <c r="N3" s="558"/>
+      <c r="O3" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="539"/>
+      <c r="P3" s="560"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -15476,7 +17135,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="535"/>
+      <c r="I4" s="556"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -15533,8 +17192,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="540"/>
-      <c r="P5" s="541"/>
+      <c r="O5" s="561"/>
+      <c r="P5" s="562"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -15572,8 +17231,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="542"/>
-      <c r="P6" s="543"/>
+      <c r="O6" s="563"/>
+      <c r="P6" s="564"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -15658,8 +17317,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="524"/>
-      <c r="P8" s="524"/>
+      <c r="O8" s="545"/>
+      <c r="P8" s="545"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
     </row>
@@ -15745,8 +17404,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="547"/>
-      <c r="P10" s="547"/>
+      <c r="O10" s="537"/>
+      <c r="P10" s="537"/>
       <c r="Q10" s="300"/>
       <c r="R10" s="185"/>
     </row>
@@ -15870,8 +17529,8 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="O13" s="549"/>
-      <c r="P13" s="549"/>
+      <c r="O13" s="539"/>
+      <c r="P13" s="539"/>
       <c r="Q13" s="331" t="s">
         <v>91</v>
       </c>
@@ -16079,8 +17738,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O18" s="550"/>
-      <c r="P18" s="550"/>
+      <c r="O18" s="540"/>
+      <c r="P18" s="540"/>
       <c r="Q18" s="333" t="s">
         <v>92</v>
       </c>
@@ -16167,8 +17826,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="568"/>
-      <c r="P20" s="568"/>
+      <c r="O20" s="579"/>
+      <c r="P20" s="579"/>
       <c r="Q20" s="308" t="s">
         <v>89</v>
       </c>
@@ -16204,8 +17863,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="552"/>
-      <c r="P21" s="552"/>
+      <c r="O21" s="542"/>
+      <c r="P21" s="542"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -16313,8 +17972,8 @@
         <f t="shared" si="3"/>
         <v>-81</v>
       </c>
-      <c r="O24" s="554"/>
-      <c r="P24" s="554"/>
+      <c r="O24" s="544"/>
+      <c r="P24" s="544"/>
       <c r="Q24" s="334" t="s">
         <v>90</v>
       </c>
@@ -16766,10 +18425,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="546" t="s">
+      <c r="F37" s="536" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="546"/>
+      <c r="G37" s="536"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>34604.840000000004</v>
@@ -16808,7 +18467,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:18" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="565" t="s">
+      <c r="B40" s="576" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="356" t="s">
@@ -16829,26 +18488,26 @@
       <c r="N40" s="212"/>
     </row>
     <row r="41" spans="2:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="566"/>
+      <c r="B41" s="577"/>
       <c r="C41" s="357" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="563" t="s">
+      <c r="D41" s="574" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="563"/>
-      <c r="F41" s="563"/>
-      <c r="G41" s="563"/>
-      <c r="H41" s="563"/>
-      <c r="I41" s="563"/>
-      <c r="J41" s="563"/>
-      <c r="K41" s="563"/>
-      <c r="L41" s="563"/>
+      <c r="E41" s="574"/>
+      <c r="F41" s="574"/>
+      <c r="G41" s="574"/>
+      <c r="H41" s="574"/>
+      <c r="I41" s="574"/>
+      <c r="J41" s="574"/>
+      <c r="K41" s="574"/>
+      <c r="L41" s="574"/>
       <c r="M41" s="211"/>
       <c r="N41" s="212"/>
     </row>
     <row r="42" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="566"/>
+      <c r="B42" s="577"/>
       <c r="C42" s="358" t="s">
         <v>49</v>
       </c>
@@ -16867,26 +18526,26 @@
       <c r="N42" s="212"/>
     </row>
     <row r="43" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="566"/>
+      <c r="B43" s="577"/>
       <c r="C43" s="359" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="564" t="s">
+      <c r="D43" s="575" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="564"/>
-      <c r="F43" s="564"/>
-      <c r="G43" s="564"/>
-      <c r="H43" s="564"/>
-      <c r="I43" s="564"/>
-      <c r="J43" s="564"/>
-      <c r="K43" s="564"/>
-      <c r="L43" s="564"/>
+      <c r="E43" s="575"/>
+      <c r="F43" s="575"/>
+      <c r="G43" s="575"/>
+      <c r="H43" s="575"/>
+      <c r="I43" s="575"/>
+      <c r="J43" s="575"/>
+      <c r="K43" s="575"/>
+      <c r="L43" s="575"/>
       <c r="M43" s="211"/>
       <c r="N43" s="212"/>
     </row>
     <row r="44" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="566"/>
+      <c r="B44" s="577"/>
       <c r="C44" s="360" t="s">
         <v>51</v>
       </c>
@@ -16905,7 +18564,7 @@
       <c r="N44" s="208"/>
     </row>
     <row r="45" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="566"/>
+      <c r="B45" s="577"/>
       <c r="C45" s="361" t="s">
         <v>54</v>
       </c>
@@ -16927,7 +18586,7 @@
       <c r="Q45" s="376"/>
     </row>
     <row r="46" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="566"/>
+      <c r="B46" s="577"/>
       <c r="C46" s="362" t="s">
         <v>94</v>
       </c>
@@ -16946,7 +18605,7 @@
       <c r="N46" s="208"/>
     </row>
     <row r="47" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="567"/>
+      <c r="B47" s="578"/>
       <c r="C47" s="363" t="s">
         <v>98</v>
       </c>
@@ -16967,15 +18626,6 @@
     <sortCondition ref="B5:B33"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="D41:L41"/>
-    <mergeCell ref="D43:L43"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O24:P24"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -16989,6 +18639,15 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D43:L43"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O24:P24"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
@@ -17029,10 +18688,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="526"/>
+      <c r="B1" s="547" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="547"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -17044,50 +18703,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="527">
+      <c r="B2" s="548">
         <v>44773</v>
       </c>
-      <c r="C2" s="528"/>
-      <c r="F2" s="529" t="s">
+      <c r="C2" s="549"/>
+      <c r="F2" s="550" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="529"/>
-      <c r="H2" s="529"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="544" t="s">
+      <c r="K2" s="565" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="544"/>
+      <c r="L2" s="565"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="530" t="s">
+      <c r="C3" s="551" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="531"/>
+      <c r="D3" s="552"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="532" t="s">
+      <c r="F3" s="553" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="533"/>
+      <c r="G3" s="554"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="534" t="s">
+      <c r="I3" s="555" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="544"/>
-      <c r="L3" s="544"/>
-      <c r="M3" s="536" t="s">
+      <c r="K3" s="565"/>
+      <c r="L3" s="565"/>
+      <c r="M3" s="557" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="537"/>
-      <c r="O3" s="538" t="s">
+      <c r="N3" s="558"/>
+      <c r="O3" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="539"/>
+      <c r="P3" s="560"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -17109,7 +18768,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="535"/>
+      <c r="I4" s="556"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -17166,8 +18825,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="540"/>
-      <c r="P5" s="541"/>
+      <c r="O5" s="561"/>
+      <c r="P5" s="562"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -17205,8 +18864,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="542"/>
-      <c r="P6" s="543"/>
+      <c r="O6" s="563"/>
+      <c r="P6" s="564"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -17291,8 +18950,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="524"/>
-      <c r="P8" s="524"/>
+      <c r="O8" s="545"/>
+      <c r="P8" s="545"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
     </row>
@@ -17378,8 +19037,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="547"/>
-      <c r="P10" s="547"/>
+      <c r="O10" s="537"/>
+      <c r="P10" s="537"/>
       <c r="Q10" s="379"/>
       <c r="R10" s="185"/>
     </row>
@@ -17503,8 +19162,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="549"/>
-      <c r="P13" s="549"/>
+      <c r="O13" s="539"/>
+      <c r="P13" s="539"/>
       <c r="Q13" s="190"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -17788,8 +19447,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O20" s="550"/>
-      <c r="P20" s="550"/>
+      <c r="O20" s="540"/>
+      <c r="P20" s="540"/>
       <c r="Q20" s="190"/>
       <c r="R20" s="185"/>
       <c r="S20" s="53"/>
@@ -17874,8 +19533,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="551"/>
-      <c r="P22" s="551"/>
+      <c r="O22" s="541"/>
+      <c r="P22" s="541"/>
       <c r="Q22" s="190"/>
       <c r="R22" s="189"/>
       <c r="S22" s="76"/>
@@ -17909,8 +19568,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="552"/>
-      <c r="P23" s="552"/>
+      <c r="O23" s="542"/>
+      <c r="P23" s="542"/>
       <c r="Q23" s="190"/>
       <c r="R23" s="185"/>
       <c r="S23" s="53"/>
@@ -18018,8 +19677,8 @@
         <f t="shared" si="10"/>
         <v>-2</v>
       </c>
-      <c r="O26" s="554"/>
-      <c r="P26" s="554"/>
+      <c r="O26" s="544"/>
+      <c r="P26" s="544"/>
       <c r="Q26" s="381" t="s">
         <v>48</v>
       </c>
@@ -18489,10 +20148,10 @@
     <row r="39" spans="2:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="126"/>
       <c r="D39" s="128"/>
-      <c r="F39" s="546" t="s">
+      <c r="F39" s="536" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="546"/>
+      <c r="G39" s="536"/>
       <c r="H39" s="129">
         <f>SUM(H5:H31)</f>
         <v>64021.82</v>
@@ -18580,15 +20239,15 @@
     <row r="45" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="244"/>
       <c r="C45" s="204"/>
-      <c r="D45" s="569"/>
-      <c r="E45" s="569"/>
-      <c r="F45" s="569"/>
-      <c r="G45" s="569"/>
-      <c r="H45" s="569"/>
-      <c r="I45" s="569"/>
-      <c r="J45" s="569"/>
-      <c r="K45" s="569"/>
-      <c r="L45" s="569"/>
+      <c r="D45" s="580"/>
+      <c r="E45" s="580"/>
+      <c r="F45" s="580"/>
+      <c r="G45" s="580"/>
+      <c r="H45" s="580"/>
+      <c r="I45" s="580"/>
+      <c r="J45" s="580"/>
+      <c r="K45" s="580"/>
+      <c r="L45" s="580"/>
       <c r="M45" s="211"/>
       <c r="N45" s="212"/>
     </row>
@@ -18655,13 +20314,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D45:L45"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="F39:G39"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -18675,6 +20327,13 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
+    <mergeCell ref="D45:L45"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
@@ -18709,32 +20368,32 @@
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="579" t="s">
+      <c r="C2" s="583" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="580"/>
-      <c r="E2" s="580"/>
-      <c r="F2" s="580"/>
-      <c r="G2" s="580"/>
-      <c r="H2" s="581"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="584"/>
+      <c r="F2" s="584"/>
+      <c r="G2" s="584"/>
+      <c r="H2" s="585"/>
     </row>
     <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="409"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C4" s="409"/>
-      <c r="D4" s="570" t="s">
+      <c r="D4" s="589" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="571"/>
-      <c r="G4" s="570" t="s">
+      <c r="E4" s="590"/>
+      <c r="G4" s="589" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="571"/>
-      <c r="J4" s="570" t="s">
+      <c r="H4" s="590"/>
+      <c r="J4" s="589" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="571"/>
+      <c r="K4" s="590"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="412"/>
@@ -18760,7 +20419,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="572" t="s">
+      <c r="B6" s="591" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="421" t="s">
@@ -18786,25 +20445,25 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="572"/>
+      <c r="B7" s="591"/>
       <c r="C7" s="422" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="584" t="s">
+      <c r="D7" s="588" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="583"/>
-      <c r="G7" s="582" t="s">
+      <c r="E7" s="587"/>
+      <c r="G7" s="586" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="583"/>
+      <c r="H7" s="587"/>
       <c r="J7" s="438" t="s">
         <v>129</v>
       </c>
       <c r="K7" s="140"/>
     </row>
     <row r="8" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="573" t="s">
+      <c r="B8" s="592" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="423" t="s">
@@ -18822,7 +20481,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="574"/>
+      <c r="B9" s="593"/>
       <c r="C9" s="424" t="s">
         <v>121</v>
       </c>
@@ -18834,7 +20493,7 @@
       <c r="K9" s="378"/>
     </row>
     <row r="10" spans="2:11" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="575" t="s">
+      <c r="B10" s="594" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="430" t="s">
@@ -18856,7 +20515,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="57" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="576"/>
+      <c r="B11" s="595"/>
       <c r="C11" s="429" t="s">
         <v>123</v>
       </c>
@@ -18868,7 +20527,7 @@
       <c r="K11" s="378"/>
     </row>
     <row r="12" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="577" t="s">
+      <c r="B12" s="581" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="433" t="s">
@@ -18886,7 +20545,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="578"/>
+      <c r="B13" s="582"/>
       <c r="C13" s="434" t="s">
         <v>125</v>
       </c>
@@ -18947,16 +20606,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18996,10 +20655,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="526" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="526"/>
+      <c r="B1" s="547" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="547"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -19011,50 +20670,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="527">
+      <c r="B2" s="548">
         <v>44801</v>
       </c>
-      <c r="C2" s="528"/>
-      <c r="F2" s="529" t="s">
+      <c r="C2" s="549"/>
+      <c r="F2" s="550" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="529"/>
-      <c r="H2" s="529"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="544" t="s">
+      <c r="K2" s="565" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="544"/>
+      <c r="L2" s="565"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="530" t="s">
+      <c r="C3" s="551" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="531"/>
+      <c r="D3" s="552"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="532" t="s">
+      <c r="F3" s="553" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="533"/>
+      <c r="G3" s="554"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="534" t="s">
+      <c r="I3" s="555" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="544"/>
-      <c r="L3" s="544"/>
-      <c r="M3" s="536" t="s">
+      <c r="K3" s="565"/>
+      <c r="L3" s="565"/>
+      <c r="M3" s="557" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="537"/>
-      <c r="O3" s="538" t="s">
+      <c r="N3" s="558"/>
+      <c r="O3" s="559" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="539"/>
+      <c r="P3" s="560"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -19076,7 +20735,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="535"/>
+      <c r="I4" s="556"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -19133,8 +20792,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="540"/>
-      <c r="P5" s="541"/>
+      <c r="O5" s="561"/>
+      <c r="P5" s="562"/>
     </row>
     <row r="6" spans="2:24" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -19172,8 +20831,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="542"/>
-      <c r="P6" s="543"/>
+      <c r="O6" s="563"/>
+      <c r="P6" s="564"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -19250,8 +20909,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="524"/>
-      <c r="P8" s="524"/>
+      <c r="O8" s="545"/>
+      <c r="P8" s="545"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
     </row>
@@ -19324,8 +20983,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="547"/>
-      <c r="P10" s="547"/>
+      <c r="O10" s="537"/>
+      <c r="P10" s="537"/>
       <c r="Q10" s="379"/>
       <c r="R10" s="185"/>
     </row>
@@ -19449,8 +21108,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="549"/>
-      <c r="P13" s="549"/>
+      <c r="O13" s="539"/>
+      <c r="P13" s="539"/>
       <c r="Q13" s="190"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -19736,8 +21395,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="550"/>
-      <c r="P20" s="550"/>
+      <c r="O20" s="540"/>
+      <c r="P20" s="540"/>
       <c r="Q20" s="190"/>
       <c r="R20" s="185"/>
       <c r="S20" s="53"/>
@@ -19814,8 +21473,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="551"/>
-      <c r="P22" s="551"/>
+      <c r="O22" s="541"/>
+      <c r="P22" s="541"/>
       <c r="Q22" s="190"/>
       <c r="R22" s="189"/>
       <c r="S22" s="76"/>
@@ -19849,8 +21508,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="552"/>
-      <c r="P23" s="552"/>
+      <c r="O23" s="542"/>
+      <c r="P23" s="542"/>
       <c r="Q23" s="190"/>
       <c r="R23" s="185"/>
       <c r="S23" s="53"/>
@@ -19958,8 +21617,8 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="O26" s="585"/>
-      <c r="P26" s="585"/>
+      <c r="O26" s="596"/>
+      <c r="P26" s="596"/>
       <c r="Q26" s="474" t="s">
         <v>48</v>
       </c>
@@ -20411,10 +22070,10 @@
     <row r="39" spans="2:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="126"/>
       <c r="D39" s="128"/>
-      <c r="F39" s="546" t="s">
+      <c r="F39" s="536" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="546"/>
+      <c r="G39" s="536"/>
       <c r="H39" s="129">
         <f>SUM(H5:H31)</f>
         <v>35872.69</v>
@@ -20588,6 +22247,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O26:P26"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -20601,12 +22266,6 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O26:P26"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
